--- a/Uebung/030519/Excel-Uebung_Teil1.xlsx
+++ b/Uebung/030519/Excel-Uebung_Teil1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\IS\Lehre\Vorlesungen\GWI\GWI_SS2019\Übung\Termin_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\STUDENTS_SMB\Testfran\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C248BB9C-23E0-42A7-88E5-2174EAA07FF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24300" yWindow="-18120" windowWidth="25440" windowHeight="15390" firstSheet="12" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24300" yWindow="-18120" windowWidth="25440" windowHeight="15390" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="1.1 Möbelumsatz" sheetId="2" r:id="rId1"/>
@@ -21,32 +20,33 @@
     <sheet name="1.6 Immobilien" sheetId="15" r:id="rId6"/>
     <sheet name="1.7 Umsätze im 1. Quartal" sheetId="16" r:id="rId7"/>
     <sheet name="1.8a Kaufverhalten Dtl. gesamt" sheetId="17" r:id="rId8"/>
-    <sheet name="1.8b Kaufverhalten Mannheim" sheetId="18" r:id="rId9"/>
+    <sheet name="1.8d Kaufverhalten Köln" sheetId="20" r:id="rId9"/>
     <sheet name="1.8c Kaufverhalten Frankfurt" sheetId="19" r:id="rId10"/>
-    <sheet name="1.8d Kaufverhalten Köln" sheetId="20" r:id="rId11"/>
-    <sheet name="1.9a Weltbevölkerung" sheetId="3" r:id="rId12"/>
-    <sheet name="1.9b Personalkosten" sheetId="5" r:id="rId13"/>
-    <sheet name="1.9cUmsätze je Geschäftsbereich" sheetId="6" r:id="rId14"/>
-    <sheet name="1.9d Marktanteil Speichermedien" sheetId="7" r:id="rId15"/>
-    <sheet name="1.9e Stärken-Schwächen-Analyse" sheetId="8" r:id="rId16"/>
+    <sheet name="1.8b Kaufverhalten Mannheim" sheetId="18" r:id="rId11"/>
+    <sheet name="Weltbevölkerung (Diagramm)" sheetId="21" r:id="rId12"/>
+    <sheet name="1.9a Weltbevölkerung" sheetId="3" r:id="rId13"/>
+    <sheet name="1.9b Personalkosten" sheetId="5" r:id="rId14"/>
+    <sheet name="1.9cUmsätze je Geschäftsbereich" sheetId="6" r:id="rId15"/>
+    <sheet name="1.9d Marktanteil Speichermedien" sheetId="7" r:id="rId16"/>
+    <sheet name="1.9e Stärken-Schwächen-Analyse" sheetId="8" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="ein_na_b" localSheetId="11">'1.9a Weltbevölkerung'!$A$4:$B$25</definedName>
+    <definedName name="ein_na_b" localSheetId="12">'1.9a Weltbevölkerung'!$A$4:$B$25</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Verbindung" type="4" refreshedVersion="3" deleted="1" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Verbindung" type="4" refreshedVersion="3" deleted="1" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="118">
   <si>
     <t>1. Jahr</t>
   </si>
@@ -367,25 +367,59 @@
   </si>
   <si>
     <t>Kaufverhalten Deutschland gesamt</t>
+  </si>
+  <si>
+    <t>2. Jahr</t>
+  </si>
+  <si>
+    <t>3. Jahr</t>
+  </si>
+  <si>
+    <t>4. Jahr</t>
+  </si>
+  <si>
+    <t>5. Jahr</t>
+  </si>
+  <si>
+    <t>6. Jahr</t>
+  </si>
+  <si>
+    <t>7. Jahr</t>
+  </si>
+  <si>
+    <t>8. Jahr</t>
+  </si>
+  <si>
+    <t>9. Jahr</t>
+  </si>
+  <si>
+    <t>10. Jahr</t>
+  </si>
+  <si>
+    <t>Kurierdienst Bern</t>
+  </si>
+  <si>
+    <t>Großpakete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="11">
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="#,##0\ [$€-1]"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
+    <numFmt numFmtId="174" formatCode="_-[$¥-411]* #,##0_-;\-[$¥-411]* #,##0_-;_-[$¥-411]* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +530,30 @@
       <name val="Cambria"/>
       <family val="1"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -862,11 +920,11 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -874,16 +932,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -892,17 +944,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -942,23 +994,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -967,11 +1018,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -987,50 +1038,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1055,9 +1076,79 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="3" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Euro" xfId="4" xr:uid="{2390EBAB-4CB2-4747-A1D6-2C83D8BDF275}"/>
+    <cellStyle name="Euro" xfId="4"/>
     <cellStyle name="Komma" xfId="2" builtinId="3"/>
     <cellStyle name="Prozent" xfId="3" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1076,7 +1167,4230 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.9a Weltbevölkerung'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weltbevölkerung </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1.9a Weltbevölkerung'!$A$5:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>18264</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20090</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21916</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23743</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36526</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38353</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40179</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47484</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49310</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51136</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52963</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>54789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.9a Weltbevölkerung'!$B$5:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2519470000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2757399000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3023812000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3337974000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3696588000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4073740000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4442295000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4843947000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5279519000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5692353000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6085572000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6464750000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6842923000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7219431000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7577889000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7905239000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8199104000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8463265000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8701319000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8907417000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9075903000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-160C-4A00-9DE9-FC3CCF973AE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:axId val="456211392"/>
+        <c:axId val="456211064"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="456211392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456211064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="years"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="456211064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456211392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Personalkostenentwicklung der letzten 5 Jahre</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.9b Personalkosten'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bereich</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1.9b Personalkosten'!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.9b Personalkosten'!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-63F2-4385-8578-127E4F3D541A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.9b Personalkosten'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verwaltung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1.9b Personalkosten'!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.9b Personalkosten'!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-63F2-4385-8578-127E4F3D541A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.9b Personalkosten'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forschung &amp; Entwicklung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1.9b Personalkosten'!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.9b Personalkosten'!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-63F2-4385-8578-127E4F3D541A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.9b Personalkosten'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Produktion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1.9b Personalkosten'!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.9b Personalkosten'!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-63F2-4385-8578-127E4F3D541A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.9b Personalkosten'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Absatz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1.9b Personalkosten'!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.9b Personalkosten'!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-63F2-4385-8578-127E4F3D541A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="465455560"/>
+        <c:axId val="465450968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="465455560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465450968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="465450968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465455560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Umsatzentwicklung nach Geschäftsbereichen</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.9cUmsätze je Geschäftsbereich'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Unterhaltungselektronik</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1.9cUmsätze je Geschäftsbereich'!$A$5:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.9cUmsätze je Geschäftsbereich'!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>158000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7543-4F1C-8D1D-5A2835261B07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.9cUmsätze je Geschäftsbereich'!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Mobilkommunikation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1.9cUmsätze je Geschäftsbereich'!$A$5:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.9cUmsätze je Geschäftsbereich'!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>103000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7543-4F1C-8D1D-5A2835261B07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.9cUmsätze je Geschäftsbereich'!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Speichermedien</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1.9cUmsätze je Geschäftsbereich'!$A$5:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.9cUmsätze je Geschäftsbereich'!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7543-4F1C-8D1D-5A2835261B07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="553535312"/>
+        <c:axId val="553535968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="553535312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553535968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="553535968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00\ &quot;€&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553535312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Marktanteil Speichermedien in 2008</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.9d Marktanteil Speichermedien'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Marktanteil in %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.9d Marktanteil Speichermedien'!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Eigener</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TDK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sony</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BASF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Panasonic</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Verbatim</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Andere</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.9d Marktanteil Speichermedien'!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF7C-4DC6-860C-B0DB028ADD88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="143" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9285210" cy="5988094"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1106,8 +5420,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9525" y="333375"/>
-          <a:ext cx="1704975" cy="304800"/>
+          <a:off x="9525" y="390525"/>
+          <a:ext cx="1600200" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1132,10 +5446,40 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1191,11 +5535,76 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ein_na-b" connectionId="1" xr16:uid="{E4A1D542-500A-4BAF-805A-BA347610D4FA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ein_na-b" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1274,23 +5683,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1326,23 +5718,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1518,234 +5893,277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="102" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="121">
         <v>205020</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="121">
         <v>196350</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="121">
         <v>141780</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="122">
         <f>SUM(B3:D3)</f>
         <v>543150</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="121">
         <v>61740</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="121">
         <v>62280</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="121">
         <v>62820</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="122">
         <f>SUM(B4:D4)</f>
         <v>186840</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="121">
         <v>39690</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="121">
         <v>56070</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="121">
         <v>27090</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="122">
         <f>SUM(B5:D5)</f>
         <v>122850</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="123">
         <f>SUM(B3:B5)</f>
         <v>306450</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="123">
         <f>SUM(C3:C5)</f>
         <v>314700</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="123">
         <f>SUM(D3:D5)</f>
         <v>231690</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="124">
         <f>SUM(E3:E5)</f>
         <v>852840</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43396C73-39BC-4262-9BD4-3B50688DEC8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="74" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="86" t="s">
+    <row r="4" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="87">
+      <c r="B4" s="131">
         <v>22</v>
       </c>
-      <c r="C4" s="88">
+      <c r="C4" s="132">
         <v>55</v>
       </c>
-      <c r="D4" s="89">
+      <c r="D4" s="133">
         <v>20</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="86" t="s">
+      <c r="E4" s="75">
+        <f>SUM(B4:D4)</f>
+        <v>97</v>
+      </c>
+      <c r="F4" s="76">
+        <f>E4/$E$7</f>
+        <v>0.2068230277185501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="92">
+      <c r="B5" s="134">
         <v>33</v>
       </c>
-      <c r="C5" s="93">
+      <c r="C5" s="135">
         <v>44</v>
       </c>
-      <c r="D5" s="94">
+      <c r="D5" s="136">
         <v>100</v>
       </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="91"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="86" t="s">
+      <c r="E5" s="75">
+        <f t="shared" ref="E5:E6" si="0">SUM(B5:D5)</f>
+        <v>177</v>
+      </c>
+      <c r="F5" s="76">
+        <f t="shared" ref="F5:F6" si="1">E5/$E$7</f>
+        <v>0.37739872068230279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="95">
+      <c r="B6" s="137">
         <v>1</v>
       </c>
-      <c r="C6" s="96">
+      <c r="C6" s="138">
         <v>44</v>
       </c>
-      <c r="D6" s="97">
+      <c r="D6" s="139">
         <v>150</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="91"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="86" t="s">
+      <c r="E6" s="75">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="F6" s="76">
+        <f t="shared" si="1"/>
+        <v>0.41577825159914711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="91"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="86" t="s">
+      <c r="B7" s="75">
+        <f>SUM(B4:B6)</f>
+        <v>56</v>
+      </c>
+      <c r="C7" s="75">
+        <f t="shared" ref="C7:E7" si="2">SUM(C4:C6)</f>
+        <v>143</v>
+      </c>
+      <c r="D7" s="75">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="E7" s="75">
+        <f t="shared" si="2"/>
+        <v>469</v>
+      </c>
+      <c r="F7" s="76"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="99"/>
+      <c r="B8" s="77">
+        <f>B7/$E$7</f>
+        <v>0.11940298507462686</v>
+      </c>
+      <c r="C8" s="77">
+        <f t="shared" ref="C8:D8" si="3">C7/$E$7</f>
+        <v>0.30490405117270791</v>
+      </c>
+      <c r="D8" s="77">
+        <f t="shared" si="3"/>
+        <v>0.57569296375266521</v>
+      </c>
+      <c r="E8" s="77"/>
+      <c r="F8" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1756,118 +6174,157 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DEA3DA-90CD-4AFD-BB81-4E224F07C03E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86" t="s">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="74" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="86" t="s">
+    <row r="4" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="87">
-        <v>11</v>
-      </c>
-      <c r="C4" s="88">
-        <v>22</v>
-      </c>
-      <c r="D4" s="89">
+      <c r="B4" s="131">
+        <v>33</v>
+      </c>
+      <c r="C4" s="132">
+        <v>44</v>
+      </c>
+      <c r="D4" s="133">
         <v>56</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="86" t="s">
+      <c r="E4" s="75">
+        <f>SUM(B4:D4)</f>
+        <v>133</v>
+      </c>
+      <c r="F4" s="76">
+        <f>E4/$E$7</f>
+        <v>0.2878787878787879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="92">
+      <c r="B5" s="134">
+        <v>44</v>
+      </c>
+      <c r="C5" s="135">
+        <v>33</v>
+      </c>
+      <c r="D5" s="136">
         <v>100</v>
       </c>
-      <c r="C5" s="93">
-        <v>33</v>
-      </c>
-      <c r="D5" s="94">
-        <v>50</v>
-      </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="91"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="86" t="s">
+      <c r="E5" s="75">
+        <f t="shared" ref="E5:E6" si="0">SUM(B5:D5)</f>
+        <v>177</v>
+      </c>
+      <c r="F5" s="76">
+        <f t="shared" ref="F5:F6" si="1">E5/$E$7</f>
+        <v>0.38311688311688313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="95">
-        <v>30</v>
-      </c>
-      <c r="C6" s="96">
-        <v>5</v>
-      </c>
-      <c r="D6" s="97">
+      <c r="B6" s="137">
+        <v>0</v>
+      </c>
+      <c r="C6" s="138">
+        <v>2</v>
+      </c>
+      <c r="D6" s="139">
         <v>150</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="91"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="86" t="s">
+      <c r="E6" s="75">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="F6" s="76">
+        <f t="shared" si="1"/>
+        <v>0.32900432900432902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="91"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="86" t="s">
+      <c r="B7" s="75">
+        <f>SUM(B4:B6)</f>
+        <v>77</v>
+      </c>
+      <c r="C7" s="75">
+        <f t="shared" ref="C7:E7" si="2">SUM(C4:C6)</f>
+        <v>79</v>
+      </c>
+      <c r="D7" s="75">
+        <f t="shared" si="2"/>
+        <v>306</v>
+      </c>
+      <c r="E7" s="75">
+        <f t="shared" si="2"/>
+        <v>462</v>
+      </c>
+      <c r="F7" s="76"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="99"/>
+      <c r="B8" s="77">
+        <f>B7/$E$7</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C8" s="77">
+        <f t="shared" ref="C8:D8" si="3">C7/$E$7</f>
+        <v>0.17099567099567101</v>
+      </c>
+      <c r="D8" s="77">
+        <f t="shared" si="3"/>
+        <v>0.66233766233766234</v>
+      </c>
+      <c r="E8" s="77"/>
+      <c r="F8" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1878,29 +6335,29 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1908,171 +6365,171 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>18264</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>2519470000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>20090</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>2757399000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>21916</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>3023812000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>23743</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>3337974000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>25569</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>3696588000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>27395</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>4073740000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>29221</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>4442295000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>31048</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>4843947000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>32874</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>5279519000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>34700</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>5692353000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>36526</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="10">
         <v>6085572000</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>38353</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <v>6464750000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>40179</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="10">
         <v>6842923000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <v>42005</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="10">
         <v>7219431000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>43831</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="10">
         <v>7577889000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>45658</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <v>7905239000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>47484</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>8199104000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
         <v>49310</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <v>8463265000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
         <v>51136</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <v>8701319000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>52963</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <v>8907417000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
         <v>54789</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="10">
         <v>9075903000</v>
       </c>
     </row>
@@ -2082,143 +6539,143 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378F07D4-45F7-4508-BCB8-1C3EA6DCFEDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="104"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="90"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="91"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="93"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>2004</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>2005</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>2006</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <v>2007</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>2008</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="17">
         <v>25000</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>29000</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>35000</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="18">
         <v>37000</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>32000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="21">
         <v>15000</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="22">
         <v>12000</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="22">
         <v>12000</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="22">
         <v>20000</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="23">
         <v>20000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="21">
         <v>25000</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="22">
         <v>30000</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="22">
         <v>40000</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="22">
         <v>41000</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="23">
         <v>38000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="25">
         <v>12000</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="26">
         <v>15000</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="26">
         <v>20000</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="26">
         <v>20000</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="27">
         <v>18000</v>
       </c>
     </row>
@@ -2233,124 +6690,124 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D07DDC3-ACBA-4ADA-8127-A6079AA43038}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="110"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="96"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="91"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="93"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="34">
+      <c r="B4" s="15"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="32">
         <v>2004</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <v>120000</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>19000</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="19">
         <v>38000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
         <v>2005</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <v>140000</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="22">
         <v>52000</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="23">
         <v>45000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
         <v>2006</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="22">
         <v>147000</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="22">
         <v>89000</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="23">
         <v>49000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
         <v>2007</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="22">
         <v>158000</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="22">
         <v>103000</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="23">
         <v>61000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="36">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="34">
         <v>2008</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="26">
         <v>143000</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="26">
         <v>105000</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="27">
         <v>54000</v>
       </c>
     </row>
@@ -2365,94 +6822,94 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D4D186-0047-4070-B9CE-A4F976A2D940}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="110"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="105"/>
-      <c r="B2" s="107"/>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="B1" s="96"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="91"/>
+      <c r="B2" s="93"/>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="38">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="38">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="38">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="38">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="38">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="38">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="40">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>49</v>
       </c>
@@ -2463,195 +6920,196 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3845535F-F6AC-4E15-B929-5106DCB42594}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="111"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="113"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="99"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="45" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="48">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="46">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="47">
         <v>1</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="47">
         <v>2</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="47">
         <v>2.5</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="48">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="48">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="46">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="47">
         <v>2</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="47">
         <v>2.5</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="47">
         <v>1.5</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="48">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="48">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="46">
         <v>3</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="47">
         <v>2.5</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="47">
         <v>3.5</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="47">
         <v>1.5</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="48">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="48">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="46">
         <v>4</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="47">
         <v>2</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="47">
         <v>3</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="47">
         <v>3</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="48">
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="48">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="46">
         <v>5</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="47">
         <v>1.5</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="47">
         <v>1.5</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="47">
         <v>2.5</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="48">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="48">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="46">
         <v>6</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="47">
         <v>2.5</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="47">
         <v>2</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="47">
         <v>3</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="48">
         <v>4.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="51">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="49">
         <v>7</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="50">
         <v>1.5</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="50">
         <v>2</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="50">
         <v>2</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="51">
         <v>4</v>
       </c>
     </row>
@@ -2664,23 +7122,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2688,7 +7146,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2696,7 +7154,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2704,7 +7162,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -2721,7 +7179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -2729,75 +7187,207 @@
         <f>$C$1</f>
         <v>50000</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5">
+        <f>B6*$C$2</f>
+        <v>2500</v>
+      </c>
       <c r="D6" s="5">
         <f>$C$3</f>
         <v>5000</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E6" s="5">
+        <f>B6+C6-D6</f>
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="5">
+        <f>E6</f>
+        <v>47500</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" ref="C7:C15" si="0">B7*$C$2</f>
+        <v>2375</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:D15" si="1">$C$3</f>
+        <v>5000</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" ref="E7:E15" si="2">B7+C7-D7</f>
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" ref="B8:B15" si="3">E7</f>
+        <v>44875</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>2243.75</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="2"/>
+        <v>42118.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="5">
+        <f t="shared" si="3"/>
+        <v>42118.75</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>2105.9375</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="2"/>
+        <v>39224.6875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="5">
+        <f t="shared" si="3"/>
+        <v>39224.6875</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>1961.234375</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="2"/>
+        <v>36185.921875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="5">
+        <f t="shared" si="3"/>
+        <v>36185.921875</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>1809.2960937500002</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="2"/>
+        <v>32995.217968750003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" si="3"/>
+        <v>32995.217968750003</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>1649.7608984375001</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="2"/>
+        <v>29644.978867187499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" si="3"/>
+        <v>29644.978867187499</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>1482.2489433593751</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="2"/>
+        <v>26127.227810546876</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="5">
+        <f t="shared" si="3"/>
+        <v>26127.227810546876</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>1306.3613905273439</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="2"/>
+        <v>22433.589201074221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" si="3"/>
+        <v>22433.589201074221</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>1121.6794600537112</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="2"/>
+        <v>18555.268661127931</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2806,443 +7396,553 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83254381-FECF-42ED-8D36-4C5B87FA8250}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C2" s="105" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E2" s="105" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="102" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B3" s="108">
         <v>8976</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C3" s="108">
+        <v>1148</v>
+      </c>
+      <c r="D3" s="108">
         <v>3455</v>
       </c>
-      <c r="D2" s="8">
-        <f>SUM(B2:C2)</f>
-        <v>12431</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="102" t="s">
+      <c r="E3" s="108">
+        <f>SUM(B3:D3)</f>
+        <v>13579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B4" s="108">
         <v>6750</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C4" s="108">
+        <v>856</v>
+      </c>
+      <c r="D4" s="108">
         <v>3125</v>
       </c>
-      <c r="D3" s="8">
-        <f>SUM(B3:C3)</f>
-        <v>9875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="E4" s="108">
+        <f>SUM(B4:D4)</f>
+        <v>10731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B5" s="108">
         <v>4225</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C5" s="108">
+        <v>804</v>
+      </c>
+      <c r="D5" s="108">
         <v>2411</v>
       </c>
-      <c r="D4" s="8">
-        <f>SUM(B4:C4)</f>
-        <v>6636</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="102" t="s">
+      <c r="E5" s="108">
+        <f>SUM(B5:D5)</f>
+        <v>7440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B6" s="108">
         <v>3985</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C6" s="108">
+        <v>288</v>
+      </c>
+      <c r="D6" s="108">
         <v>2308</v>
       </c>
-      <c r="D5" s="8">
-        <f>SUM(B5:C5)</f>
-        <v>6293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="102" t="s">
+      <c r="E6" s="108">
+        <f>SUM(B6:D6)</f>
+        <v>6581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="8">
-        <f>SUM(B2:B5)</f>
+      <c r="B7" s="108">
+        <f>SUM(B3:B6)</f>
         <v>23936</v>
       </c>
-      <c r="C6" s="8">
-        <f>SUM(C2:C5)</f>
+      <c r="C7" s="108">
+        <f>SUM(C3:C6)</f>
+        <v>3096</v>
+      </c>
+      <c r="D7" s="108">
+        <f>SUM(D3:D6)</f>
         <v>11299</v>
       </c>
-      <c r="D6" s="8">
-        <f>SUM(B6:C6)</f>
-        <v>35235</v>
+      <c r="E7" s="108">
+        <f>SUM(B7:D7)</f>
+        <v>38331</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311DB5E2-2DA5-4029-9BEF-82E685C26C06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="55">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="53">
         <v>2000</v>
       </c>
-      <c r="B2" s="56">
+      <c r="B2" s="54">
         <v>325000</v>
       </c>
-      <c r="C2" s="56">
+      <c r="C2" s="54">
         <v>234000</v>
       </c>
-      <c r="D2" s="56">
+      <c r="D2" s="54">
         <v>120000</v>
       </c>
-      <c r="E2" s="56">
+      <c r="E2" s="54">
         <v>505000</v>
       </c>
-      <c r="F2" s="56">
+      <c r="F2" s="54">
         <f t="shared" ref="F2:F11" si="0">SUM(A2:E2)</f>
         <v>1186000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="55">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="53">
         <v>2001</v>
       </c>
-      <c r="B3" s="56">
+      <c r="B3" s="54">
         <v>244000</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="54">
         <v>389000</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="54">
         <v>98000</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E3" s="54">
         <v>456000</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="54">
         <f t="shared" si="0"/>
         <v>1189001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="55">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="53">
         <v>2002</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="54">
         <v>239000</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="54">
         <v>387000</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="54">
         <v>102000</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="54">
         <v>398000</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="54">
         <f t="shared" si="0"/>
         <v>1128002</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="55">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="53">
         <v>2003</v>
       </c>
-      <c r="B5" s="56">
+      <c r="B5" s="54">
         <v>243000</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="54">
         <v>355000</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="54">
         <v>87000</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="54">
         <v>376000</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="54">
         <f t="shared" si="0"/>
         <v>1063003</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="55">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="53">
         <v>2004</v>
       </c>
-      <c r="B6" s="56">
+      <c r="B6" s="54">
         <v>213000</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="54">
         <v>299000</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="54">
         <v>78000</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="54">
         <v>321000</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="54">
         <f t="shared" si="0"/>
         <v>913004</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="55">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="53">
         <v>2005</v>
       </c>
-      <c r="B7" s="56">
+      <c r="B7" s="54">
         <v>215000</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="54">
         <v>308000</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="54">
         <v>94000</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="54">
         <v>354000</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="54">
         <f t="shared" si="0"/>
         <v>973005</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="55">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="53">
         <v>2006</v>
       </c>
-      <c r="B8" s="56">
+      <c r="B8" s="54">
         <v>301000</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="54">
         <v>317000</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="54">
         <v>327000</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="54">
         <v>350000</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="54">
         <f t="shared" si="0"/>
         <v>1297006</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="55">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="53">
         <v>2007</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="54">
         <v>383000</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="54">
         <v>384000</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="54">
         <v>383000</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="54">
         <v>383000</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="54">
         <f t="shared" si="0"/>
         <v>1535007</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="55">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="53">
         <v>2008</v>
       </c>
-      <c r="B10" s="56">
+      <c r="B10" s="54">
         <v>410000</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="54">
         <v>439000</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="54">
         <v>382000</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="54">
         <v>410000</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="54">
         <f t="shared" si="0"/>
         <v>1643008</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="55">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="53">
         <v>2009</v>
       </c>
-      <c r="B11" s="56">
+      <c r="B11" s="54">
         <v>445000</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="54">
         <v>450000</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="54">
         <v>418000</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="54">
         <v>448000</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="54">
         <f t="shared" si="0"/>
         <v>1763009</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'1.4 Marketingerfolg'!B2:E2</xm:f>
+              <xm:sqref>G2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'1.4 Marketingerfolg'!B3:E3</xm:f>
+              <xm:sqref>G3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'1.4 Marketingerfolg'!B4:E4</xm:f>
+              <xm:sqref>G4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'1.4 Marketingerfolg'!B5:E5</xm:f>
+              <xm:sqref>G5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'1.4 Marketingerfolg'!B6:E6</xm:f>
+              <xm:sqref>G6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'1.4 Marketingerfolg'!B7:E7</xm:f>
+              <xm:sqref>G7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'1.4 Marketingerfolg'!B8:E8</xm:f>
+              <xm:sqref>G8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'1.4 Marketingerfolg'!B9:E9</xm:f>
+              <xm:sqref>G9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'1.4 Marketingerfolg'!B10:E10</xm:f>
+              <xm:sqref>G10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'1.4 Marketingerfolg'!B11:E11</xm:f>
+              <xm:sqref>G11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA705D3-5E9F-4AF5-B30F-047EB3EAC544}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="113" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="116"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="83"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="114"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="70" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="55"/>
+      <c r="B3" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="115" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="58">
+      <c r="B4" s="125">
         <v>218000</v>
       </c>
-      <c r="C4" s="59"/>
+      <c r="C4" s="110">
+        <f>B4/$B$8</f>
+        <v>0.22154471544715448</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="70" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="125">
         <v>257000</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="110">
+        <f t="shared" ref="C5:C8" si="0">B5/$B$8</f>
+        <v>0.26117886178861788</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="70" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="125">
         <v>265000</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="110">
+        <f t="shared" si="0"/>
+        <v>0.26930894308943087</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="70" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="125">
         <v>244000</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="110">
+        <f t="shared" si="0"/>
+        <v>0.24796747967479674</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="70" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
+      <c r="B8" s="125">
+        <f>SUM(B4:B7)</f>
+        <v>984000</v>
+      </c>
+      <c r="C8" s="110">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
   </sheetData>
@@ -3255,23 +7955,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBEECBE-07BE-4AEC-A604-093CED12C489}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="6"/>
@@ -3280,118 +7981,157 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="61"/>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="117" t="s">
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="119"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="62" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="59" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="61">
         <v>480000</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65" t="s">
+      <c r="C5" s="61">
+        <f>$E$10*B5+B5</f>
+        <v>504000</v>
+      </c>
+      <c r="D5" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="64"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="63">
+        <f>MAX(B5:B9)</f>
+        <v>600000</v>
+      </c>
+      <c r="F5" s="63">
+        <f>MAX(C5:C9)</f>
+        <v>630000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="64">
+      <c r="B6" s="61">
         <v>430000</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65" t="s">
+      <c r="C6" s="61">
+        <f t="shared" ref="C6:C9" si="0">$E$10*B6+B6</f>
+        <v>451500</v>
+      </c>
+      <c r="D6" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="64"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="63">
+        <f>MIN(B5:B9)</f>
+        <v>350000</v>
+      </c>
+      <c r="F6" s="63">
+        <f>MIN(C5:C9)</f>
+        <v>367500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="61">
         <v>350000</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="65" t="s">
+      <c r="C7" s="61">
+        <f t="shared" si="0"/>
+        <v>367500</v>
+      </c>
+      <c r="D7" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="64"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="63">
+        <f>AVERAGE(B5:B9)</f>
+        <v>466000</v>
+      </c>
+      <c r="F7" s="63">
+        <f>AVERAGE(C5:C9)</f>
+        <v>489300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="61">
         <v>600000</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65" t="s">
+      <c r="C8" s="61">
+        <f t="shared" si="0"/>
+        <v>630000</v>
+      </c>
+      <c r="D8" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="64">
+        <f>COUNT(B5:B9)</f>
+        <v>5</v>
+      </c>
+      <c r="F8" s="64">
+        <f>COUNT(C5:C9)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="64">
+      <c r="B9" s="61">
         <v>470000</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="61"/>
+      <c r="C9" s="61">
+        <f t="shared" si="0"/>
+        <v>493500</v>
+      </c>
+      <c r="D9" s="58"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="68" t="s">
+      <c r="C10" s="61"/>
+      <c r="D10" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="66">
         <v>0.05</v>
       </c>
       <c r="F10" s="6"/>
@@ -3405,194 +8145,284 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CC9EDC-027C-47E4-A6AB-A1A9F4309F11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.42578125" style="120"/>
+    <col min="6" max="6" width="12" style="120" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="71"/>
-      <c r="B1" s="72" t="s">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="68"/>
+      <c r="B1" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="126" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="120" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="74">
+      <c r="C2" s="117">
         <v>121520</v>
       </c>
-      <c r="D2" s="74">
+      <c r="D2" s="117">
         <v>169785</v>
       </c>
-      <c r="E2" s="74">
+      <c r="E2" s="117">
         <v>182525</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="76"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="120"/>
-      <c r="B3" s="73" t="s">
+      <c r="F2" s="118">
+        <f>SUM(C2:E2)</f>
+        <v>473830</v>
+      </c>
+      <c r="G2" s="127">
+        <f>F2/$F$11</f>
+        <v>0.23393929220317561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="87"/>
+      <c r="B3" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="117">
         <v>109140</v>
       </c>
-      <c r="D3" s="74">
+      <c r="D3" s="117">
         <v>100470</v>
       </c>
-      <c r="E3" s="74">
+      <c r="E3" s="117">
         <v>101490</v>
       </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="120"/>
-      <c r="B4" s="73" t="s">
+      <c r="F3" s="118">
+        <f t="shared" ref="F3:F4" si="0">SUM(C3:E3)</f>
+        <v>311100</v>
+      </c>
+      <c r="G3" s="127">
+        <f t="shared" ref="G3:G11" si="1">F3/$F$11</f>
+        <v>0.15359625562840667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="87"/>
+      <c r="B4" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="117">
         <v>41940</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="117">
         <v>35640</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="117">
         <v>47160</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="77" t="s">
+      <c r="F4" s="118">
+        <f t="shared" si="0"/>
+        <v>124740</v>
+      </c>
+      <c r="G4" s="127">
+        <f t="shared" si="1"/>
+        <v>6.1586618216288809E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="120" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="119">
+        <f>SUM(C2:C4)</f>
+        <v>272600</v>
+      </c>
+      <c r="D5" s="119">
+        <f t="shared" ref="D5:F5" si="2">SUM(D2:D4)</f>
+        <v>305895</v>
+      </c>
+      <c r="E5" s="119">
+        <f t="shared" si="2"/>
+        <v>331175</v>
+      </c>
+      <c r="F5" s="119">
+        <f t="shared" si="2"/>
+        <v>909670</v>
+      </c>
+      <c r="G5" s="127">
+        <f t="shared" si="1"/>
+        <v>0.44912216604787109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="74">
+      <c r="C6" s="117">
         <v>240640</v>
       </c>
-      <c r="D6" s="74">
+      <c r="D6" s="117">
         <v>202240</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="117">
         <v>176640</v>
       </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="120"/>
-      <c r="B7" s="73" t="s">
+      <c r="F6" s="118">
+        <f>SUM(C6:E6)</f>
+        <v>619520</v>
+      </c>
+      <c r="G6" s="127">
+        <f t="shared" si="1"/>
+        <v>0.30586934197013982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="87"/>
+      <c r="B7" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="74">
+      <c r="C7" s="117">
         <v>28350</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="117">
         <v>25200</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="117">
         <v>27090</v>
       </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="120"/>
-      <c r="B8" s="73" t="s">
+      <c r="F7" s="118">
+        <f t="shared" ref="F7:F9" si="3">SUM(C7:E7)</f>
+        <v>80640</v>
+      </c>
+      <c r="G7" s="127">
+        <f t="shared" si="1"/>
+        <v>3.9813571372146299E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="87"/>
+      <c r="B8" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C8" s="117">
         <v>96250</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="117">
         <v>104300</v>
       </c>
-      <c r="E8" s="74">
+      <c r="E8" s="117">
         <v>102200</v>
       </c>
-      <c r="F8" s="75"/>
-      <c r="G8" s="76"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="120"/>
-      <c r="B9" s="73" t="s">
+      <c r="F8" s="118">
+        <f t="shared" si="3"/>
+        <v>302750</v>
+      </c>
+      <c r="G8" s="127">
+        <f t="shared" si="1"/>
+        <v>0.14947369460462911</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="87"/>
+      <c r="B9" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="117">
         <v>32400</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="117">
         <v>37800</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="117">
         <v>42660</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="76"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="77" t="s">
+      <c r="F9" s="118">
+        <f t="shared" si="3"/>
+        <v>112860</v>
+      </c>
+      <c r="G9" s="127">
+        <f t="shared" si="1"/>
+        <v>5.5721226005213682E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
-      <c r="B11" s="70" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="119">
+        <f>SUM(C6:C9)</f>
+        <v>397640</v>
+      </c>
+      <c r="D10" s="119">
+        <f t="shared" ref="D10:F10" si="4">SUM(D6:D9)</f>
+        <v>369540</v>
+      </c>
+      <c r="E10" s="119">
+        <f t="shared" si="4"/>
+        <v>348590</v>
+      </c>
+      <c r="F10" s="119">
+        <f t="shared" si="4"/>
+        <v>1115770</v>
+      </c>
+      <c r="G10" s="127">
+        <f t="shared" si="1"/>
+        <v>0.55087783395212897</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="56"/>
+      <c r="B11" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="84"/>
+      <c r="C11" s="117">
+        <f>SUM(C5,C10)</f>
+        <v>670240</v>
+      </c>
+      <c r="D11" s="117">
+        <f t="shared" ref="D11:F11" si="5">SUM(D5,D10)</f>
+        <v>675435</v>
+      </c>
+      <c r="E11" s="117">
+        <f t="shared" si="5"/>
+        <v>679765</v>
+      </c>
+      <c r="F11" s="117">
+        <f t="shared" si="5"/>
+        <v>2025440</v>
+      </c>
+      <c r="G11" s="127">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3604,222 +8434,328 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5444536C-233E-464B-A9FC-34F40BEC8000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="74" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="86" t="s">
+    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="86" t="s">
+      <c r="B4" s="131">
+        <f>('1.8d Kaufverhalten Köln'!B4+'1.8c Kaufverhalten Frankfurt'!B4+'1.8b Kaufverhalten Mannheim'!B4)</f>
+        <v>66</v>
+      </c>
+      <c r="C4" s="140">
+        <f>('1.8d Kaufverhalten Köln'!C4+'1.8c Kaufverhalten Frankfurt'!C4+'1.8b Kaufverhalten Mannheim'!C4)</f>
+        <v>121</v>
+      </c>
+      <c r="D4" s="140">
+        <f>('1.8d Kaufverhalten Köln'!D4+'1.8c Kaufverhalten Frankfurt'!D4+'1.8b Kaufverhalten Mannheim'!D4)</f>
+        <v>132</v>
+      </c>
+      <c r="E4" s="75">
+        <f>SUM(B4:D4)</f>
+        <v>319</v>
+      </c>
+      <c r="F4" s="76">
+        <f>E4/$E$7</f>
+        <v>0.2298270893371758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="91"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="86" t="s">
+      <c r="B5" s="131">
+        <f>('1.8d Kaufverhalten Köln'!B5+'1.8c Kaufverhalten Frankfurt'!B5+'1.8b Kaufverhalten Mannheim'!B5)</f>
+        <v>177</v>
+      </c>
+      <c r="C5" s="140">
+        <f>('1.8d Kaufverhalten Köln'!C5+'1.8c Kaufverhalten Frankfurt'!C5+'1.8b Kaufverhalten Mannheim'!C5)</f>
+        <v>110</v>
+      </c>
+      <c r="D5" s="140">
+        <f>('1.8d Kaufverhalten Köln'!D5+'1.8c Kaufverhalten Frankfurt'!D5+'1.8b Kaufverhalten Mannheim'!D5)</f>
+        <v>250</v>
+      </c>
+      <c r="E5" s="75">
+        <f t="shared" ref="E5:E6" si="0">SUM(B5:D5)</f>
+        <v>537</v>
+      </c>
+      <c r="F5" s="76">
+        <f t="shared" ref="F5:F6" si="1">E5/$E$7</f>
+        <v>0.38688760806916428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="91"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="86" t="s">
+      <c r="B6" s="131">
+        <f>('1.8d Kaufverhalten Köln'!B6+'1.8c Kaufverhalten Frankfurt'!B6+'1.8b Kaufverhalten Mannheim'!B6)</f>
+        <v>31</v>
+      </c>
+      <c r="C6" s="140">
+        <f>('1.8d Kaufverhalten Köln'!C6+'1.8c Kaufverhalten Frankfurt'!C6+'1.8b Kaufverhalten Mannheim'!C6)</f>
+        <v>51</v>
+      </c>
+      <c r="D6" s="140">
+        <f>('1.8d Kaufverhalten Köln'!D6+'1.8c Kaufverhalten Frankfurt'!D6+'1.8b Kaufverhalten Mannheim'!D6)</f>
+        <v>450</v>
+      </c>
+      <c r="E6" s="75">
+        <f t="shared" si="0"/>
+        <v>532</v>
+      </c>
+      <c r="F6" s="76">
+        <f t="shared" si="1"/>
+        <v>0.38328530259365995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="100"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="86" t="s">
+      <c r="B7" s="75">
+        <f>SUM(B4:B6)</f>
+        <v>274</v>
+      </c>
+      <c r="C7" s="75">
+        <f>SUM(C4:C6)</f>
+        <v>282</v>
+      </c>
+      <c r="D7" s="75">
+        <f t="shared" ref="C7:E7" si="2">SUM(D4:D6)</f>
+        <v>832</v>
+      </c>
+      <c r="E7" s="75">
+        <f t="shared" si="2"/>
+        <v>1388</v>
+      </c>
+      <c r="F7" s="79"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="99"/>
+      <c r="B8" s="77">
+        <f>B7/$E$7</f>
+        <v>0.19740634005763688</v>
+      </c>
+      <c r="C8" s="77">
+        <f t="shared" ref="C8:D8" si="3">C7/$E$7</f>
+        <v>0.20317002881844382</v>
+      </c>
+      <c r="D8" s="77">
+        <f t="shared" si="3"/>
+        <v>0.59942363112391928</v>
+      </c>
+      <c r="E8" s="80"/>
+      <c r="F8" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E32E582-A703-488C-AB8E-28A5FD13AE7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86" t="s">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="74" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="86" t="s">
+    <row r="4" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="87">
+      <c r="B4" s="131">
+        <v>11</v>
+      </c>
+      <c r="C4" s="132">
+        <v>22</v>
+      </c>
+      <c r="D4" s="133">
+        <v>56</v>
+      </c>
+      <c r="E4" s="75">
+        <f>SUM(B4:D4)</f>
+        <v>89</v>
+      </c>
+      <c r="F4" s="76">
+        <f>E4/$E$7</f>
+        <v>0.19474835886214442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="134">
+        <v>100</v>
+      </c>
+      <c r="C5" s="135">
         <v>33</v>
       </c>
-      <c r="C4" s="88">
-        <v>44</v>
-      </c>
-      <c r="D4" s="89">
-        <v>56</v>
-      </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="86" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="92">
-        <v>44</v>
-      </c>
-      <c r="C5" s="93">
-        <v>33</v>
-      </c>
-      <c r="D5" s="94">
+      <c r="D5" s="136">
+        <v>50</v>
+      </c>
+      <c r="E5" s="75">
+        <f t="shared" ref="E5:E6" si="0">SUM(B5:D5)</f>
+        <v>183</v>
+      </c>
+      <c r="F5" s="76">
+        <f t="shared" ref="F5:F6" si="1">E5/$E$7</f>
+        <v>0.40043763676148797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="137">
+        <v>30</v>
+      </c>
+      <c r="C6" s="138">
+        <v>5</v>
+      </c>
+      <c r="D6" s="139">
+        <v>150</v>
+      </c>
+      <c r="E6" s="75">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="F6" s="76">
+        <f t="shared" si="1"/>
+        <v>0.40481400437636761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="75">
+        <f>SUM(B4:B6)</f>
+        <v>141</v>
+      </c>
+      <c r="C7" s="75">
+        <f t="shared" ref="C7:E7" si="2">SUM(C4:C6)</f>
+        <v>60</v>
+      </c>
+      <c r="D7" s="75">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="E7" s="75">
+        <f t="shared" si="2"/>
+        <v>457</v>
+      </c>
+      <c r="F7" s="76"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="91"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="95">
-        <v>0</v>
-      </c>
-      <c r="C6" s="96">
-        <v>2</v>
-      </c>
-      <c r="D6" s="97">
-        <v>150</v>
-      </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="91"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="91"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="86" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="99"/>
+      <c r="B8" s="77">
+        <f>B7/$E$7</f>
+        <v>0.30853391684901532</v>
+      </c>
+      <c r="C8" s="77">
+        <f t="shared" ref="C8:D8" si="3">C7/$E$7</f>
+        <v>0.13129102844638948</v>
+      </c>
+      <c r="D8" s="77">
+        <f t="shared" si="3"/>
+        <v>0.56017505470459517</v>
+      </c>
+      <c r="E8" s="77"/>
+      <c r="F8" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="1">
